--- a/docs/Calendario de revisiones.xlsx
+++ b/docs/Calendario de revisiones.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imelda.hernandez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AEC0F9-DB3F-4A37-97CA-2C43682C73A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AEC0F9-DB3F-4A37-97CA-2C43682C73A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{8FD2CAD8-5185-429B-9808-8D9E0FFF2EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,6 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>Calendario de revisiones Proyecto Final</t>
+  </si>
+  <si>
     <t>Revisión</t>
   </si>
   <si>
@@ -36,47 +50,44 @@
     <t>Sección a revisar</t>
   </si>
   <si>
+    <t>Diseño y planificación (Objetivos, requerimientos, cronograma, presupuesto Fecha límite 9/mayo/2025, boceto, mapa del sitio...)</t>
+  </si>
+  <si>
+    <t>Index, Información, Productos o servicios</t>
+  </si>
+  <si>
+    <t>Index, Información, Impacto, situación actual, visión a futuro</t>
+  </si>
+  <si>
+    <t>Videos, Mapa de google, galería de imágenes</t>
+  </si>
+  <si>
+    <t>14 a 25 de abril</t>
+  </si>
+  <si>
+    <t>Vacaciones</t>
+  </si>
+  <si>
+    <t>Sección de ayuda, formulario de contacto (html, css, jascript)</t>
+  </si>
+  <si>
+    <t>Cuestionario (html, css, javascript), Generar el PDF</t>
+  </si>
+  <si>
+    <t>Chatbot, blog (html, css, jascript)</t>
+  </si>
+  <si>
+    <t>12 a 22 de mayo</t>
+  </si>
+  <si>
     <t>Exposiciones</t>
-  </si>
-  <si>
-    <t>12 a 22 de mayo</t>
-  </si>
-  <si>
-    <t>14 a 25 de abril</t>
-  </si>
-  <si>
-    <t>Vacaciones</t>
-  </si>
-  <si>
-    <t>Calendario de revisiones Proyecto Final</t>
-  </si>
-  <si>
-    <t>Diseño y planificación (Objetivos, requerimientos, cronograma, presupuesto Fecha límite 9/mayo/2025, boceto, mapa del sitio...)</t>
-  </si>
-  <si>
-    <t>Index, Información, Productos o servicios</t>
-  </si>
-  <si>
-    <t>Index, Información, Impacto, situación actual, visión a futuro</t>
-  </si>
-  <si>
-    <t>Videos, Mapa de google, galería de imágenes</t>
-  </si>
-  <si>
-    <t>Cuestionario (html, css, javascript), Generar el PDF</t>
-  </si>
-  <si>
-    <t>Chatbot, blog (html, css, jascript)</t>
-  </si>
-  <si>
-    <t>Sección de ayuda, formulario de contacto (html, css, jascript)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -162,7 +173,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -492,43 +502,43 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="35.25" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>45737</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="42" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,13 +546,13 @@
         <v>45744</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,21 +560,21 @@
         <v>45751</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -572,11 +582,11 @@
         <v>45775</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -584,11 +594,11 @@
         <v>45779</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -596,19 +606,19 @@
         <v>45786</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="1"/>
     </row>
